--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A715BBC9-5667-45F0-91C2-44B909FA2D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C99189B-4699-442E-A4E2-6CF9FC983453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Uitleg gekregen van Olivier ivm Github</t>
+  </si>
+  <si>
+    <t>Vergadering met Olivier</t>
+  </si>
+  <si>
+    <t>Vergadering met Olivier en Arnout</t>
   </si>
 </sst>
 </file>
@@ -781,7 +787,7 @@
   <dimension ref="D2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,15 +848,27 @@
       </c>
     </row>
     <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="22"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44472</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
       <c r="G7" s="21"/>
     </row>
     <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="22"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44472</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
       <c r="G8" s="21"/>
     </row>
     <row r="9" spans="4:12" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -897,7 +915,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="17">
         <f>SUM(F5:F13)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15" s="16">
         <f>SUM(G5:G12)</f>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C99189B-4699-442E-A4E2-6CF9FC983453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A274A188-48F4-472D-AE70-6A300067BC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>Vergadering met Olivier en Arnout</t>
+  </si>
+  <si>
+    <t>Voertuig klasse afgewerkt zonder testen</t>
+  </si>
+  <si>
+    <t>4-6/10/2021</t>
+  </si>
+  <si>
+    <t>Voertuig klasse afgewerkt met testen</t>
+  </si>
+  <si>
+    <t>6-7/10/2021</t>
   </si>
 </sst>
 </file>
@@ -458,18 +470,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -787,7 +797,7 @@
   <dimension ref="D2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,16 +882,30 @@
       <c r="G8" s="21"/>
     </row>
     <row r="9" spans="4:12" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="23"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="24"/>
+      <c r="D9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="24">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="4:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="23"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="24">
+        <v>4</v>
+      </c>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -891,16 +915,16 @@
       <c r="G11" s="21"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="31"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="32"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="31"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="32"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="25"/>
@@ -909,24 +933,22 @@
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="17">
         <f>SUM(F5:F13)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G15" s="16">
         <f>SUM(G5:G12)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G12:G13"/>
     <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A274A188-48F4-472D-AE70-6A300067BC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FBFBBE-69DB-4BD0-928E-959D0585CF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -458,6 +458,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -476,10 +480,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -810,12 +810,12 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
@@ -902,7 +902,9 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
       <c r="G10" s="24">
         <v>4</v>
       </c>
@@ -915,16 +917,16 @@
       <c r="G11" s="21"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="34"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="33"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="34"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="33"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="25"/>
@@ -933,13 +935,13 @@
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="32"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="17">
         <f>SUM(F5:F13)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G15" s="16">
         <f>SUM(G5:G12)</f>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FBFBBE-69DB-4BD0-928E-959D0585CF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EBC418-7FF3-4B9A-9A61-325D215E51F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>6-7/10/2021</t>
+  </si>
+  <si>
+    <t>Implementatie RijbewijstManager</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
   <dimension ref="D2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,16 +914,28 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="22"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44475</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
       <c r="G11" s="21"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="28"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="12">
+        <v>44483</v>
+      </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="27">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="28"/>
@@ -941,11 +956,11 @@
       <c r="E15" s="34"/>
       <c r="F15" s="17">
         <f>SUM(F5:F13)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" s="16">
         <f>SUM(G5:G12)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EBC418-7FF3-4B9A-9A61-325D215E51F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07E8677-E51A-4BEA-80D3-2BAB97176BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Implementatie RijbewijstManager</t>
+  </si>
+  <si>
+    <t>RijbewijsType Tests</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -371,17 +374,38 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -421,9 +445,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,9 +455,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -457,14 +475,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,6 +498,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L15"/>
+  <dimension ref="D2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,12 +837,12 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
@@ -827,27 +851,27 @@
       <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="4">
         <v>44469</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>1.5</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="2">
@@ -856,12 +880,12 @@
       <c r="F6" s="3">
         <v>1.5</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="2">
@@ -870,10 +894,10 @@
       <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2">
@@ -882,10 +906,10 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="4:12" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -894,12 +918,12 @@
       <c r="F9" s="7">
         <v>6</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="4:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -908,13 +932,13 @@
       <c r="F10" s="7">
         <v>4</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <v>4</v>
       </c>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="2">
@@ -923,50 +947,72 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>44483</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="27">
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44485</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="24"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="24"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="28"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="25"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="17">
+      <c r="E17" s="31"/>
+      <c r="F17" s="15">
         <f>SUM(F5:F13)</f>
-        <v>17</v>
-      </c>
-      <c r="G15" s="16">
+        <v>19.5</v>
+      </c>
+      <c r="G17" s="25">
         <f>SUM(G5:G12)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07E8677-E51A-4BEA-80D3-2BAB97176BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EDCCA6-7ABA-4D93-81B5-9F53209CC6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>RijbewijsType Tests</t>
+  </si>
+  <si>
+    <t>aanpassing toegevoegd bij Voertuig</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Voertuig testen verbetert</t>
   </si>
 </sst>
 </file>
@@ -163,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -409,11 +418,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,6 +502,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,13 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -824,7 +845,7 @@
   <dimension ref="D2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,12 +858,12 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
@@ -971,38 +992,57 @@
         <v>44485</v>
       </c>
       <c r="F13" s="3">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="23">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="24"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="23"/>
+      <c r="D14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44490</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="24"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="23"/>
+      <c r="D15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44490</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="16" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="33"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="34"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="15">
-        <f>SUM(F5:F13)</f>
-        <v>19.5</v>
+        <f>SUM(F5:F15)</f>
+        <v>23</v>
       </c>
       <c r="G17" s="25">
         <f>SUM(G5:G12)</f>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EDCCA6-7ABA-4D93-81B5-9F53209CC6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5D0510-0BA6-437E-94B2-F7959840AB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Voertuig testen verbetert</t>
+  </si>
+  <si>
+    <t>Commentaar, properties en testen bij Tankaart</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -528,6 +531,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -844,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
   <dimension ref="D2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,10 +1036,18 @@
       </c>
     </row>
     <row r="16" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="27"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="28"/>
+      <c r="D16" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="36">
+        <v>44490</v>
+      </c>
+      <c r="F16" s="26">
+        <v>2</v>
+      </c>
+      <c r="G16" s="28">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="33" t="s">
@@ -1041,8 +1055,8 @@
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="15">
-        <f>SUM(F5:F15)</f>
-        <v>23</v>
+        <f>SUM(F5:F16)</f>
+        <v>25</v>
       </c>
       <c r="G17" s="25">
         <f>SUM(G5:G12)</f>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5D0510-0BA6-437E-94B2-F7959840AB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A6BAF6-DBD9-4A15-B5F5-0D69B8AD2845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -117,7 +117,10 @@
     <t>Voertuig testen verbetert</t>
   </si>
   <si>
-    <t>Commentaar, properties en testen bij Tankaart</t>
+    <t>Commentaar, properties, methode en testen bij Tankaart</t>
+  </si>
+  <si>
+    <t>Implementatie RijbewijsTypeRepo</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -286,32 +289,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -353,7 +330,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -362,73 +339,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -436,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,48 +378,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,10 +418,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -848,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L17"/>
+  <dimension ref="D2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,12 +758,12 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
@@ -878,27 +772,27 @@
       <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="4">
         <v>44469</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>1.5</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="2">
@@ -907,12 +801,12 @@
       <c r="F6" s="3">
         <v>1.5</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="26" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="2">
@@ -921,10 +815,10 @@
       <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2">
@@ -933,10 +827,10 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="4:12" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -945,12 +839,12 @@
       <c r="F9" s="7">
         <v>6</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="4:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="27" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -959,13 +853,13 @@
       <c r="F10" s="7">
         <v>4</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="7">
         <v>4</v>
       </c>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="26" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="2">
@@ -974,24 +868,24 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="2">
         <v>44483</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="28" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="2">
@@ -1000,12 +894,12 @@
       <c r="F13" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="2">
@@ -1014,7 +908,7 @@
       <c r="F14" s="3">
         <v>0.8</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="29">
         <v>0.8</v>
       </c>
       <c r="H14" t="s">
@@ -1022,7 +916,7 @@
       </c>
     </row>
     <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="28" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="2">
@@ -1031,34 +925,114 @@
       <c r="F15" s="3">
         <v>0.2</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="29">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="27" t="s">
+    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="2">
         <v>44490</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="33" t="s">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44494</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="25"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="25"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="25"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="25"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="25"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="25"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="25"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="25"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D26" s="25"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="25"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="30"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="15">
-        <f>SUM(F5:F16)</f>
-        <v>25</v>
-      </c>
-      <c r="G17" s="25">
+      <c r="E29" s="24"/>
+      <c r="F29" s="13">
+        <f>SUM(F5:F17)</f>
+        <v>27</v>
+      </c>
+      <c r="G29" s="17">
         <f>SUM(G5:G12)</f>
         <v>13</v>
       </c>
@@ -1066,7 +1040,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A6BAF6-DBD9-4A15-B5F5-0D69B8AD2845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC7F312-968F-4146-8071-2F8235442AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Implementatie RijbewijstManager</t>
   </si>
   <si>
-    <t>RijbewijsType Tests</t>
-  </si>
-  <si>
     <t>aanpassing toegevoegd bij Voertuig</t>
   </si>
   <si>
@@ -121,6 +118,15 @@
   </si>
   <si>
     <t>Implementatie RijbewijsTypeRepo</t>
+  </si>
+  <si>
+    <t>Implementatie RijbewijsTypeRepo Deel 2</t>
+  </si>
+  <si>
+    <t>Project vak</t>
+  </si>
+  <si>
+    <t>RijbewijsType Tests ea</t>
   </si>
 </sst>
 </file>
@@ -400,24 +406,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -428,6 +416,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -742,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L29"/>
+  <dimension ref="D2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,12 +764,12 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
@@ -789,10 +795,12 @@
       <c r="F5" s="11">
         <v>1.5</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="2">
@@ -802,11 +810,11 @@
         <v>1.5</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="20" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="2">
@@ -818,7 +826,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2">
@@ -830,7 +838,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="4:12" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -844,7 +852,7 @@
       </c>
     </row>
     <row r="10" spans="4:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -859,7 +867,7 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="20" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="2">
@@ -870,177 +878,213 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="28" t="s">
+    <row r="12" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44476</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>44483</v>
       </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="F13" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G13" s="23">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2">
         <v>44485</v>
       </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2">
-        <v>44490</v>
-      </c>
       <c r="F14" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G14" s="29">
-        <v>0.8</v>
-      </c>
-      <c r="H14" t="s">
+        <v>3.5</v>
+      </c>
+      <c r="G14" s="23">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="22" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="28" t="s">
-        <v>16</v>
       </c>
       <c r="E15" s="2">
         <v>44490</v>
       </c>
       <c r="F15" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D16" s="25" t="s">
-        <v>19</v>
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="E16" s="2">
         <v>44490</v>
       </c>
       <c r="F16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44490</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44494</v>
+      </c>
+      <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G18" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D17" s="25" t="s">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44497</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="2">
-        <v>44494</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E20" s="2">
+        <v>44498</v>
+      </c>
+      <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G20" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D18" s="25"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D19" s="25"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D20" s="25"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D21" s="25"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D22" s="25"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D23" s="25"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="25"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="25"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D26" s="25"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D27" s="25"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="30"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="23" t="s">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D28" s="19"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D29" s="19"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="24"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="13">
-        <f>SUM(F5:F17)</f>
-        <v>27</v>
-      </c>
-      <c r="G29" s="17">
-        <f>SUM(G5:G12)</f>
-        <v>13</v>
+      <c r="E31" s="30"/>
+      <c r="F31" s="13">
+        <f>SUM(F5:F20)</f>
+        <v>42</v>
+      </c>
+      <c r="G31" s="17">
+        <f>SUM(G5:G13)</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC7F312-968F-4146-8071-2F8235442AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49A30EC-8B1C-45AD-8CD7-8599D21AC9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>RijbewijsType Tests ea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les Project </t>
+  </si>
+  <si>
+    <t>Vergadering met olivier</t>
   </si>
 </sst>
 </file>
@@ -751,7 +757,7 @@
   <dimension ref="D2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,16 +1014,32 @@
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D21" s="19"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="D21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44473</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D22" s="19"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="D22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44510</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D23" s="19"/>
@@ -1073,8 +1095,8 @@
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="13">
-        <f>SUM(F5:F20)</f>
-        <v>42</v>
+        <f>SUM(F5:F22)</f>
+        <v>48</v>
       </c>
       <c r="G31" s="17">
         <f>SUM(G5:G13)</f>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49A30EC-8B1C-45AD-8CD7-8599D21AC9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33232F9A-92D2-4E81-ADA6-4D7A673D6821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Vergadering met olivier</t>
+  </si>
+  <si>
+    <t>BestuurderRepo</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
   <dimension ref="D2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,10 +1045,18 @@
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D23" s="19"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="D23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44511</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D24" s="19"/>
@@ -1095,8 +1106,8 @@
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="13">
-        <f>SUM(F5:F22)</f>
-        <v>48</v>
+        <f>SUM(F5:F23)</f>
+        <v>50</v>
       </c>
       <c r="G31" s="17">
         <f>SUM(G5:G13)</f>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33232F9A-92D2-4E81-ADA6-4D7A673D6821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470FEC7C-E278-409C-A2F5-66844DC5BDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>BestuurderRepo</t>
+  </si>
+  <si>
+    <t>12-15/11/11</t>
   </si>
 </sst>
 </file>
@@ -759,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
   <dimension ref="D2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,10 +1062,18 @@
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="19"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="D24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D25" s="19"/>
@@ -1106,8 +1117,8 @@
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="13">
-        <f>SUM(F5:F23)</f>
-        <v>50</v>
+        <f>SUM(F5:F24)</f>
+        <v>53</v>
       </c>
       <c r="G31" s="17">
         <f>SUM(G5:G13)</f>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470FEC7C-E278-409C-A2F5-66844DC5BDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14EC05-695C-4F99-8E99-28075D8275FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -138,7 +138,7 @@
     <t>BestuurderRepo</t>
   </si>
   <si>
-    <t>12-15/11/11</t>
+    <t>12-15/11/21</t>
   </si>
 </sst>
 </file>
@@ -763,7 +763,7 @@
   <dimension ref="D2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,10 +1076,18 @@
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="19"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="D25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44518</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4</v>
+      </c>
+      <c r="G25" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D26" s="19"/>
@@ -1117,8 +1125,8 @@
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="13">
-        <f>SUM(F5:F24)</f>
-        <v>53</v>
+        <f>SUM(F5:F25)</f>
+        <v>57</v>
       </c>
       <c r="G31" s="17">
         <f>SUM(G5:G13)</f>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14EC05-695C-4F99-8E99-28075D8275FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75613D18-44FA-4932-87A7-1E1E0638FC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>12-15/11/21</t>
+  </si>
+  <si>
+    <t>Les Project en bespreking met Olivier</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
   <dimension ref="D2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,10 +1093,18 @@
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D26" s="19"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="D26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44525</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D27" s="19"/>
@@ -1125,8 +1136,8 @@
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="13">
-        <f>SUM(F5:F25)</f>
-        <v>57</v>
+        <f>SUM(F5:F26)</f>
+        <v>63</v>
       </c>
       <c r="G31" s="17">
         <f>SUM(G5:G13)</f>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75613D18-44FA-4932-87A7-1E1E0638FC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437E6BC7-849C-43CA-A861-685292447DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Les Project en bespreking met Olivier</t>
+  </si>
+  <si>
+    <t>WPF voertuig</t>
   </si>
 </sst>
 </file>
@@ -766,7 +769,7 @@
   <dimension ref="D2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,10 +1110,18 @@
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D27" s="19"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="D27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44533</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D28" s="19"/>
@@ -1136,8 +1147,8 @@
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="13">
-        <f>SUM(F5:F26)</f>
-        <v>63</v>
+        <f>SUM(F5:F27)</f>
+        <v>66</v>
       </c>
       <c r="G31" s="17">
         <f>SUM(G5:G13)</f>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437E6BC7-849C-43CA-A861-685292447DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC3B0FE-66BF-411E-AA58-74BB65984EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>WPF voertuig</t>
+  </si>
+  <si>
+    <t>Aanpassing in Main</t>
   </si>
 </sst>
 </file>
@@ -769,7 +772,7 @@
   <dimension ref="D2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,9 +1127,15 @@
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D28" s="19"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44539</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.3">
@@ -1147,8 +1156,8 @@
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="13">
-        <f>SUM(F5:F27)</f>
-        <v>66</v>
+        <f>SUM(F5:F28)</f>
+        <v>67</v>
       </c>
       <c r="G31" s="17">
         <f>SUM(G5:G13)</f>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC3B0FE-66BF-411E-AA58-74BB65984EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA860BB8-F7D9-4B29-8734-AE19ADBD614A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Aanpassing in Main</t>
+  </si>
+  <si>
+    <t>VoertuigenTab design + backend</t>
   </si>
 </sst>
 </file>
@@ -772,7 +775,7 @@
   <dimension ref="D2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,15 +1137,25 @@
         <v>44539</v>
       </c>
       <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D29" s="19"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="D29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44545</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D30" s="24"/>
@@ -1156,8 +1169,8 @@
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="13">
-        <f>SUM(F5:F28)</f>
-        <v>67</v>
+        <f>SUM(F5:F29)</f>
+        <v>71</v>
       </c>
       <c r="G31" s="17">
         <f>SUM(G5:G13)</f>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA860BB8-F7D9-4B29-8734-AE19ADBD614A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3144961-8631-4AC7-A23E-B1CFB13644B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>VoertuigenTab design + backend</t>
+  </si>
+  <si>
+    <t>TankkaartZoeken Front/Backend</t>
+  </si>
+  <si>
+    <t>Vergadering met docent en team</t>
   </si>
 </sst>
 </file>
@@ -772,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L31"/>
+  <dimension ref="D2:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,22 +1163,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="24"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D30" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="18">
+        <v>44546</v>
+      </c>
+      <c r="F30" s="16">
+        <v>2</v>
+      </c>
+      <c r="G30" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="18">
+        <v>44546</v>
+      </c>
+      <c r="F31" s="16">
+        <v>5</v>
+      </c>
+      <c r="G31" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="13">
-        <f>SUM(F5:F29)</f>
-        <v>71</v>
-      </c>
-      <c r="G31" s="17">
+      <c r="E32" s="30"/>
+      <c r="F32" s="13">
+        <f>SUM(F5:F31)</f>
+        <v>78</v>
+      </c>
+      <c r="G32" s="17">
         <f>SUM(G5:G13)</f>
         <v>22</v>
       </c>
@@ -1180,7 +1208,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3144961-8631-4AC7-A23E-B1CFB13644B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14C27D-0538-4577-BD5B-EE931AEDCBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Vergadering met docent en team</t>
+  </si>
+  <si>
+    <t>Call met Olivier</t>
   </si>
 </sst>
 </file>
@@ -430,9 +433,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,6 +446,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -778,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L32"/>
+  <dimension ref="D2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,7 +833,7 @@
       </c>
     </row>
     <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="2">
@@ -844,7 +847,7 @@
       </c>
     </row>
     <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="2">
@@ -856,7 +859,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2">
@@ -868,7 +871,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="4:12" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -882,7 +885,7 @@
       </c>
     </row>
     <row r="10" spans="4:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -897,7 +900,7 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="2">
@@ -909,7 +912,7 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2">
@@ -923,7 +926,7 @@
       </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="2">
@@ -932,12 +935,12 @@
       <c r="F13" s="3">
         <v>4.5</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2">
@@ -946,12 +949,12 @@
       <c r="F14" s="3">
         <v>3.5</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>3.5</v>
       </c>
     </row>
     <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="2">
@@ -960,7 +963,7 @@
       <c r="F15" s="3">
         <v>0.8</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>0.8</v>
       </c>
       <c r="H15" t="s">
@@ -968,7 +971,7 @@
       </c>
     </row>
     <row r="16" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="2">
@@ -977,12 +980,12 @@
       <c r="F16" s="3">
         <v>0.2</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="2">
@@ -996,7 +999,7 @@
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="2">
@@ -1010,7 +1013,7 @@
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="2">
@@ -1024,7 +1027,7 @@
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="2">
@@ -1038,7 +1041,7 @@
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="2">
@@ -1052,7 +1055,7 @@
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="2">
@@ -1066,7 +1069,7 @@
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="2">
@@ -1080,7 +1083,7 @@
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1094,7 +1097,7 @@
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="2">
@@ -1108,7 +1111,7 @@
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="2">
@@ -1122,93 +1125,121 @@
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44531</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="2">
         <v>44533</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G28" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D28" s="19" t="s">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <v>44539</v>
       </c>
-      <c r="F28" s="3">
-        <v>2</v>
-      </c>
-      <c r="G28" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D29" s="19" t="s">
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D30" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="2">
         <v>44545</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F30" s="3">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G30" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D30" s="24" t="s">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D31" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E31" s="17">
         <v>44546</v>
       </c>
-      <c r="F30" s="16">
-        <v>2</v>
-      </c>
-      <c r="G30" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="24" t="s">
+      <c r="F31" s="16">
+        <v>2</v>
+      </c>
+      <c r="G31" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E32" s="17">
         <v>44546</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F32" s="16">
         <v>5</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G32" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="29" t="s">
+    <row r="33" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="17">
+        <v>44551</v>
+      </c>
+      <c r="F33" s="16">
+        <v>2</v>
+      </c>
+      <c r="G33" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="13">
-        <f>SUM(F5:F31)</f>
-        <v>78</v>
-      </c>
-      <c r="G32" s="17">
-        <f>SUM(G5:G13)</f>
-        <v>22</v>
+      <c r="E34" s="30"/>
+      <c r="F34" s="13">
+        <f>SUM(F5:F33)</f>
+        <v>81</v>
+      </c>
+      <c r="G34" s="24">
+        <f>SUM(G5:G33)</f>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14C27D-0538-4577-BD5B-EE931AEDCBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850D8535-6050-4835-9D1E-606159EA2145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Call met Olivier</t>
+  </si>
+  <si>
+    <t>TankkaartZoeken Backend/ Readme</t>
+  </si>
+  <si>
+    <t>Vergadering met Arnaut</t>
   </si>
 </sst>
 </file>
@@ -217,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -381,11 +387,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,9 +486,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -446,9 +508,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,10 +520,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -781,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L34"/>
+  <dimension ref="D2:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,12 +873,12 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
@@ -819,7 +895,7 @@
       </c>
     </row>
     <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="4">
@@ -828,12 +904,12 @@
       <c r="F5" s="11">
         <v>1.5</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="2">
@@ -847,7 +923,7 @@
       </c>
     </row>
     <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="2">
@@ -859,7 +935,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2">
@@ -871,7 +947,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="4:12" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -885,7 +961,7 @@
       </c>
     </row>
     <row r="10" spans="4:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -900,7 +976,7 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="2">
@@ -912,7 +988,7 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2">
@@ -926,7 +1002,7 @@
       </c>
     </row>
     <row r="13" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="2">
@@ -935,12 +1011,12 @@
       <c r="F13" s="3">
         <v>4.5</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2">
@@ -949,12 +1025,12 @@
       <c r="F14" s="3">
         <v>3.5</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>3.5</v>
       </c>
     </row>
     <row r="15" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="2">
@@ -963,7 +1039,7 @@
       <c r="F15" s="3">
         <v>0.8</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>0.8</v>
       </c>
       <c r="H15" t="s">
@@ -971,7 +1047,7 @@
       </c>
     </row>
     <row r="16" spans="4:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="2">
@@ -980,12 +1056,12 @@
       <c r="F16" s="3">
         <v>0.2</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="21">
         <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="2">
@@ -999,7 +1075,7 @@
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="2">
@@ -1013,7 +1089,7 @@
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="2">
@@ -1027,7 +1103,7 @@
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="2">
@@ -1041,7 +1117,7 @@
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="2">
@@ -1055,7 +1131,7 @@
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="2">
@@ -1069,7 +1145,7 @@
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="2">
@@ -1083,7 +1159,7 @@
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1097,7 +1173,7 @@
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="2">
@@ -1111,7 +1187,7 @@
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="2">
@@ -1125,7 +1201,7 @@
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="2">
@@ -1139,7 +1215,7 @@
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="2">
@@ -1153,7 +1229,7 @@
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="2">
@@ -1167,7 +1243,7 @@
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E30" s="2">
@@ -1181,65 +1257,93 @@
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="16">
         <v>44546</v>
       </c>
-      <c r="F31" s="16">
-        <v>2</v>
-      </c>
-      <c r="G31" s="16">
+      <c r="F31" s="15">
+        <v>2</v>
+      </c>
+      <c r="G31" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="16">
         <v>44546</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <v>5</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="23" t="s">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D33" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="16">
         <v>44551</v>
       </c>
-      <c r="F33" s="16">
-        <v>2</v>
-      </c>
-      <c r="G33" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="29" t="s">
+      <c r="F33" s="15">
+        <v>2</v>
+      </c>
+      <c r="G33" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D34" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="16">
+        <v>44552</v>
+      </c>
+      <c r="F34" s="15">
         <v>3</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="13">
-        <f>SUM(F5:F33)</f>
-        <v>81</v>
-      </c>
-      <c r="G34" s="24">
-        <f>SUM(G5:G33)</f>
-        <v>77</v>
+      <c r="G34" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="33">
+        <v>44553</v>
+      </c>
+      <c r="F35" s="34">
+        <v>2</v>
+      </c>
+      <c r="G35" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30">
+        <f>SUM(F5:F35)</f>
+        <v>86</v>
+      </c>
+      <c r="G36" s="31">
+        <f>SUM(G5:G35)</f>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850D8535-6050-4835-9D1E-606159EA2145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77753DD9-CCD7-4F38-B9B3-48FBEB64D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -508,6 +508,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,27 +537,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -860,7 +860,7 @@
   <dimension ref="D2:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,12 +873,12 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
@@ -1037,10 +1037,10 @@
         <v>44490</v>
       </c>
       <c r="F15" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G15" s="21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
@@ -1054,10 +1054,10 @@
         <v>44490</v>
       </c>
       <c r="F16" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="21">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.3">
@@ -1236,10 +1236,10 @@
         <v>44539</v>
       </c>
       <c r="F29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.3">
@@ -1292,52 +1292,52 @@
         <v>44551</v>
       </c>
       <c r="F33" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="16">
         <v>44552</v>
       </c>
       <c r="F34" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="27">
         <v>44553</v>
       </c>
-      <c r="F35" s="34">
-        <v>2</v>
-      </c>
-      <c r="G35" s="35">
+      <c r="F35" s="28">
+        <v>2</v>
+      </c>
+      <c r="G35" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30">
+      <c r="E36" s="35"/>
+      <c r="F36" s="24">
         <f>SUM(F5:F35)</f>
-        <v>86</v>
-      </c>
-      <c r="G36" s="31">
+        <v>90</v>
+      </c>
+      <c r="G36" s="25">
         <f>SUM(G5:G35)</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77753DD9-CCD7-4F38-B9B3-48FBEB64D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BAF66A-79B6-4235-A889-D5E90A3ADF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Vergadering met Arnaut</t>
+  </si>
+  <si>
+    <t>Tankkaart Aanpasssen/ Selecteren</t>
   </si>
 </sst>
 </file>
@@ -857,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L36"/>
+  <dimension ref="D2:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,7 +1315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D35" s="26" t="s">
         <v>35</v>
       </c>
@@ -1327,23 +1330,37 @@
       </c>
     </row>
     <row r="36" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="27">
+        <v>44553</v>
+      </c>
+      <c r="F36" s="28">
+        <v>5</v>
+      </c>
+      <c r="G36" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="24">
-        <f>SUM(F5:F35)</f>
-        <v>90</v>
-      </c>
-      <c r="G36" s="25">
-        <f>SUM(G5:G35)</f>
-        <v>84</v>
+      <c r="E37" s="35"/>
+      <c r="F37" s="24">
+        <f>SUM(F5:F36)</f>
+        <v>95</v>
+      </c>
+      <c r="G37" s="25">
+        <f>SUM(G5:G36)</f>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BAF66A-79B6-4235-A889-D5E90A3ADF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A48FDD0-481A-4C2B-AD00-80C3BFD639E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Tankkaart Aanpasssen/ Selecteren</t>
+  </si>
+  <si>
+    <t>Tankaart Toevoegen, Bestuurder Selecterern</t>
   </si>
 </sst>
 </file>
@@ -860,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L37"/>
+  <dimension ref="D2:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,7 +1332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D36" s="26" t="s">
         <v>36</v>
       </c>
@@ -1343,24 +1346,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D37" s="34" t="s">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D37" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="27">
+        <v>44554</v>
+      </c>
+      <c r="F37" s="28">
+        <v>2</v>
+      </c>
+      <c r="G37" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="27">
+        <v>44555</v>
+      </c>
+      <c r="F38" s="28">
+        <v>2</v>
+      </c>
+      <c r="G38" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="24">
-        <f>SUM(F5:F36)</f>
-        <v>95</v>
-      </c>
-      <c r="G37" s="25">
-        <f>SUM(G5:G36)</f>
-        <v>89</v>
+      <c r="E39" s="35"/>
+      <c r="F39" s="24">
+        <f>SUM(F5:F38)</f>
+        <v>99</v>
+      </c>
+      <c r="G39" s="25">
+        <f>SUM(G5:G38)</f>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D39:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A48FDD0-481A-4C2B-AD00-80C3BFD639E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3862A151-9DC3-438E-8C8D-4E30A802C9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Tankaart Toevoegen, Bestuurder Selecterern</t>
+  </si>
+  <si>
+    <t>Call met Arnout</t>
   </si>
 </sst>
 </file>
@@ -863,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L39"/>
+  <dimension ref="D2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1340,10 +1343,10 @@
         <v>44553</v>
       </c>
       <c r="F36" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.3">
@@ -1360,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D38" s="26" t="s">
         <v>37</v>
       </c>
@@ -1374,24 +1377,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="34" t="s">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D39" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="27">
+        <v>44556</v>
+      </c>
+      <c r="F39" s="28">
+        <v>2</v>
+      </c>
+      <c r="G39" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="27">
+        <v>27</v>
+      </c>
+      <c r="F40" s="28">
+        <v>1</v>
+      </c>
+      <c r="G40" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="27">
+        <v>44558</v>
+      </c>
+      <c r="F41" s="28">
+        <v>1</v>
+      </c>
+      <c r="G41" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="24">
-        <f>SUM(F5:F38)</f>
-        <v>99</v>
-      </c>
-      <c r="G39" s="25">
-        <f>SUM(G5:G38)</f>
-        <v>93</v>
+      <c r="E42" s="35"/>
+      <c r="F42" s="24">
+        <f>SUM(F5:F41)</f>
+        <v>102</v>
+      </c>
+      <c r="G42" s="25">
+        <f>SUM(G5:G41)</f>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3862A151-9DC3-438E-8C8D-4E30A802C9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632B7308-06FC-4269-8C01-B05DDE2775EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -232,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -397,14 +397,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -414,9 +416,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -429,37 +429,17 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,39 +497,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L42"/>
+  <dimension ref="D2:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,12 +851,12 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
@@ -1308,135 +1277,163 @@
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="2">
         <v>44552</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="3">
         <v>4</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="2">
         <v>44553</v>
       </c>
-      <c r="F35" s="28">
-        <v>2</v>
-      </c>
-      <c r="G35" s="29">
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="2">
         <v>44553</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="3">
         <v>4</v>
       </c>
-      <c r="G36" s="29">
+      <c r="G36" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="2">
         <v>44554</v>
       </c>
-      <c r="F37" s="28">
-        <v>2</v>
-      </c>
-      <c r="G37" s="29">
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="2">
         <v>44555</v>
       </c>
-      <c r="F38" s="28">
-        <v>2</v>
-      </c>
-      <c r="G38" s="29">
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="2">
         <v>44556</v>
       </c>
-      <c r="F39" s="28">
-        <v>2</v>
-      </c>
-      <c r="G39" s="29">
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="2">
         <v>27</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="3">
         <v>1</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D41" s="26" t="s">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D41" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="2">
         <v>44558</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="3">
         <v>1</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="4:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="34" t="s">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D42" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44559</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D43" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44560</v>
+      </c>
+      <c r="F43" s="3">
         <v>3</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="24">
-        <f>SUM(F5:F41)</f>
-        <v>102</v>
-      </c>
-      <c r="G42" s="25">
-        <f>SUM(G5:G41)</f>
-        <v>96</v>
+      <c r="G43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29">
+        <f>SUM(F5:F43)</f>
+        <v>107</v>
+      </c>
+      <c r="G44" s="30">
+        <f>SUM(G5:G43)</f>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632B7308-06FC-4269-8C01-B05DDE2775EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F30D7AC-635A-4D3C-92AA-1EB70E4F17A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Call met Arnout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vergadering met Olivier + verbeteringen </t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -435,11 +438,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -497,6 +529,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,10 +553,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L44"/>
+  <dimension ref="D2:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,12 +893,12 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
@@ -1416,24 +1458,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29">
-        <f>SUM(F5:F43)</f>
-        <v>107</v>
-      </c>
-      <c r="G44" s="30">
-        <f>SUM(G5:G43)</f>
-        <v>101</v>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D44" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="32">
+        <v>44572</v>
+      </c>
+      <c r="F44" s="33">
+        <v>2</v>
+      </c>
+      <c r="G44" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D45" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="32">
+        <v>44573</v>
+      </c>
+      <c r="F45" s="33">
+        <v>3</v>
+      </c>
+      <c r="G45" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D46" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="30"/>
+      <c r="F46" s="23">
+        <f>SUM(F5:F45)</f>
+        <v>112</v>
+      </c>
+      <c r="G46" s="24">
+        <f>SUM(G5:G45)</f>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F30D7AC-635A-4D3C-92AA-1EB70E4F17A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C9F201-2889-4176-81EF-B012EC6F11FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -535,6 +535,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -551,16 +561,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
   <dimension ref="D2:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,12 +893,12 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
@@ -1298,10 +1298,10 @@
         <v>44546</v>
       </c>
       <c r="F32" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G32" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.3">
@@ -1326,7 +1326,7 @@
         <v>44552</v>
       </c>
       <c r="F34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" s="3">
         <v>3</v>
@@ -1354,7 +1354,7 @@
         <v>44553</v>
       </c>
       <c r="F36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36" s="3">
         <v>4</v>
@@ -1459,45 +1459,45 @@
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="26">
         <v>44572</v>
       </c>
-      <c r="F44" s="33">
-        <v>2</v>
-      </c>
-      <c r="G44" s="34">
+      <c r="F44" s="27">
+        <v>2</v>
+      </c>
+      <c r="G44" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="26">
         <v>44573</v>
       </c>
-      <c r="F45" s="33">
-        <v>3</v>
-      </c>
-      <c r="G45" s="34">
+      <c r="F45" s="27">
+        <v>3</v>
+      </c>
+      <c r="G45" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="4:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="30"/>
+      <c r="D46" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="34"/>
       <c r="F46" s="23">
         <f>SUM(F5:F45)</f>
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G46" s="24">
         <f>SUM(G5:G45)</f>
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C9F201-2889-4176-81EF-B012EC6F11FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9559A6D1-F924-4BAB-868C-BABA57236AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -235,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -438,40 +438,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,16 +504,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
   <dimension ref="D2:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F45" sqref="F35:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,12 +854,12 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="4:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="4:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
@@ -1459,38 +1420,38 @@
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="2">
         <v>44572</v>
       </c>
-      <c r="F44" s="27">
-        <v>2</v>
-      </c>
-      <c r="G44" s="28">
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="2">
         <v>44573</v>
       </c>
-      <c r="F45" s="27">
-        <v>3</v>
-      </c>
-      <c r="G45" s="28">
+      <c r="F45" s="3">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="4:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="34"/>
+      <c r="D46" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="30"/>
       <c r="F46" s="23">
         <f>SUM(F5:F45)</f>
         <v>108</v>

--- a/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
+++ b/Documentatie/Logboeken/Logboek-Luca-Joos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Fleet\Documentatie\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9559A6D1-F924-4BAB-868C-BABA57236AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C437138F-6A73-4734-BE32-DC7FA9912A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8061FC93-56C2-42F0-A18D-5BD7334FDD21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Beschrijving uitgevoerde taak</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vergadering met Olivier + verbeteringen </t>
+  </si>
+  <si>
+    <t>Extra vergadering Olivier en Arnout</t>
   </si>
 </sst>
 </file>
@@ -235,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -438,11 +441,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -522,6 +554,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -838,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D6AFDB-6262-4F13-AC19-7AE452681B0C}">
-  <dimension ref="D2:L46"/>
+  <dimension ref="D2:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F45" sqref="F35:F45"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,24 +1489,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="4:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="23">
-        <f>SUM(F5:F45)</f>
-        <v>108</v>
-      </c>
-      <c r="G46" s="24">
-        <f>SUM(G5:G45)</f>
-        <v>104</v>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D46" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="32">
+        <v>44573</v>
+      </c>
+      <c r="F46" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="G46" s="34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="30"/>
+      <c r="F47" s="23">
+        <f>SUM(F5:F46)</f>
+        <v>110.5</v>
+      </c>
+      <c r="G47" s="24">
+        <f>SUM(G5:G46)</f>
+        <v>106.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
